--- a/medicine/Soins infirmiers et profession infirmière/Extravasation_(intraveineuse)/Extravasation_(intraveineuse).xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Extravasation_(intraveineuse)/Extravasation_(intraveineuse).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'extravasation est la fuite de médicaments perfusés par voie intraveineuse (IV) et potentiellement dommageables dans le tissu extravasculaire autour du site de perfusion. La fuite peut se produire par des veines cassantes chez les personnes âgées, par un accès de ponction veineuse antérieur ou par une fuite directe de dispositifs d'accès veineux mal positionnés. Lorsque la fuite n'a pas de conséquence néfaste, on parle d' infiltration . L'extravasation du médicament pendant le traitement intraveineux est un événement indésirable lié au traitement qui, selon le médicament, la quantité d'exposition et l'emplacement, peut potentiellement causer des blessures graves et des dommages permanents, tels que la nécrose des tissus. Les conséquences plus bénignes de l'extravasation comprennent une irritation, caractérisée par une douleur et des signes d'inflammation locale, à savoir chaleur, érythème[1] .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'extravasation est la fuite de médicaments perfusés par voie intraveineuse (IV) et potentiellement dommageables dans le tissu extravasculaire autour du site de perfusion. La fuite peut se produire par des veines cassantes chez les personnes âgées, par un accès de ponction veineuse antérieur ou par une fuite directe de dispositifs d'accès veineux mal positionnés. Lorsque la fuite n'a pas de conséquence néfaste, on parle d' infiltration . L'extravasation du médicament pendant le traitement intraveineux est un événement indésirable lié au traitement qui, selon le médicament, la quantité d'exposition et l'emplacement, peut potentiellement causer des blessures graves et des dommages permanents, tels que la nécrose des tissus. Les conséquences plus bénignes de l'extravasation comprennent une irritation, caractérisée par une douleur et des signes d'inflammation locale, à savoir chaleur, érythème .
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Médicaments</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des complications liées à l'extravasation sont possibles avec n'importe quel médicament. L'extravasation peut entraîner des lésions tissulaires irréversibles.
 L'extravasation est particulièrement grave pendant la chimiothérapie, car les médicaments  de chimiothérapie sont très toxiques.
@@ -543,19 +557,19 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le meilleur "traitement" de l'extravasation est la prévention. Selon le médicament qui s'est extravasé, il existe des options de gestion et des traitements potentiels qui visent à minimiser les dommages, bien que l'efficacité de bon nombre de ces traitements n'ait pas été bien étudiée[2]. En cas de nécrose tissulaire, un débridement chirurgical et une reconstruction peuvent être nécessaires.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le meilleur "traitement" de l'extravasation est la prévention. Selon le médicament qui s'est extravasé, il existe des options de gestion et des traitements potentiels qui visent à minimiser les dommages, bien que l'efficacité de bon nombre de ces traitements n'ait pas été bien étudiée. En cas de nécrose tissulaire, un débridement chirurgical et une reconstruction peuvent être nécessaires.
 Les étapes suivantes sont généralement recommandées dans la gestion de l'extravasation :
 Arrêtez immédiatement la perfusion. Mettez des gants stériles.
 Remplacez la sonde de perfusion par une seringue jetable. Ce faisant, n'exercez pas de pression sur la zone d'extravasation.
 Aspirez lentement le sang de retour du bras, de préférence avec autant de solution de perfusion que possible.
 Retirez soigneusement le catheter  ou tout autre accès IV du bras (le retrait de la canule d'origine n'est pas conseillé par tous les établissements de santé, car l'accès à la canule d'origine par les chirurgiens peut être utilisé pour aider à nettoyer les tissus extravasés).
-Élevez le bras et reposez-vous en position élevée. S'il y a des cloques sur le bras, aspirez le contenu des cloques avec une nouvelle aiguille fine. Des compresses chaudes doivent être placées initialement sur le site pour aider à diffuser le produit de contraste, et des compresses froides sont utilisées plus tard pour aider à réduire le gonflement[3].
-Si, pour le médicament extravasé, des mesures spécifiques à la substance s'appliquent, appliquez-les (par exemple, un refroidissement topique, du DMSO, de l'hyaluronidase ou du dexrazoxane peut être approprié)[2],[4].
-Des essais cliniques récents ont montré que Totect (États-Unis) ou Savene (Europe) ( dexrazoxane pour extravasation) est efficace pour prévenir la progression de l'extravasation des anthracyclines vers une nécrose tissulaire progressive. Dans deux essais cliniques multicentriques de phase II en ouvert, à bras unique, la nécrose a été évitée chez 98 % des patients. Le dexrazoxane pour extravasation est le seul antidote homologué pour l'extravasation des anthracyclines (daunorubicine, doxorubicine, épirubicine, idarubicine, etc. )[5].
-Gestion de la douleur et autres mesures
-La gestion de la douleur et les soins de soutien locaux sont importants, car ils peuvent aider à minimiser le risque supplémentaire d' infection et de surinfection .</t>
+Élevez le bras et reposez-vous en position élevée. S'il y a des cloques sur le bras, aspirez le contenu des cloques avec une nouvelle aiguille fine. Des compresses chaudes doivent être placées initialement sur le site pour aider à diffuser le produit de contraste, et des compresses froides sont utilisées plus tard pour aider à réduire le gonflement.
+Si, pour le médicament extravasé, des mesures spécifiques à la substance s'appliquent, appliquez-les (par exemple, un refroidissement topique, du DMSO, de l'hyaluronidase ou du dexrazoxane peut être approprié),.
+Des essais cliniques récents ont montré que Totect (États-Unis) ou Savene (Europe) ( dexrazoxane pour extravasation) est efficace pour prévenir la progression de l'extravasation des anthracyclines vers une nécrose tissulaire progressive. Dans deux essais cliniques multicentriques de phase II en ouvert, à bras unique, la nécrose a été évitée chez 98 % des patients. Le dexrazoxane pour extravasation est le seul antidote homologué pour l'extravasation des anthracyclines (daunorubicine, doxorubicine, épirubicine, idarubicine, etc. ).</t>
         </is>
       </c>
     </row>
@@ -580,12 +594,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gestion de la douleur et autres mesures</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La gestion de la douleur et les soins de soutien locaux sont importants, car ils peuvent aider à minimiser le risque supplémentaire d' infection et de surinfection .</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Extravasation_(intraveineuse)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extravasation_(intraveineuse)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>La prévention</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Seules des infirmières qualifiées et certifiées en chimiothérapie qui ont été formées à la ponction veineuse et à l'administration de médicaments à potentiel vésicant et irritant devraient être autorisées à administrer ses produits[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Seules des infirmières qualifiées et certifiées en chimiothérapie qui ont été formées à la ponction veineuse et à l'administration de médicaments à potentiel vésicant et irritant devraient être autorisées à administrer ses produits.
 Choisissez une grosse veine  avec une bonne circulation sanguine pour la ponction veineuse et la mise en place de la canule. Ne pas choisir des veines "délogeables" par inadvertance (par exemple le dos de la main ou le voisinage des articulations) si une veine alternative est disponible.
 Les doigts, les mains et les poignets doivent être évités comme sites intraveineux pour l'administration de vésicants en raison du réseau étroit de tendons et de nerfs qui seraient détruits si une extravasation se produisait.
 Placer le plus petit calibre et le plus petit cathéter pour recevoir la perfusion.
@@ -597,35 +649,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Extravasation_(intraveineuse)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Extravasation_(intraveineuse)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Exemples de médicaments vésicants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Liste des médicaments vésicants et irritants[2]:
-Médicaments cytotoxiques
-Médicaments non cytotoxiques</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des médicaments vésicants et irritants:
+</t>
         </is>
       </c>
     </row>
